--- a/ig/ch-etoc/StructureDefinition-ch-etoc-expecteddeliverydate.xlsx
+++ b/ig/ch-etoc/StructureDefinition-ch-etoc-expecteddeliverydate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T16:16:29+01:00</t>
+    <t>2023-12-28T11:52:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1765,17 +1765,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.96484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.9296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.07421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.11328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="107.140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1784,28 +1784,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.40625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-etoc/StructureDefinition-ch-etoc-expecteddeliverydate.xlsx
+++ b/ig/ch-etoc/StructureDefinition-ch-etoc-expecteddeliverydate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:52:12+01:00</t>
+    <t>2024-05-17T13:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Juerg P. Bleuer (https://www.hl7.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1765,17 +1765,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.07421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.96484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="107.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="111.11328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1784,28 +1784,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-etoc/StructureDefinition-ch-etoc-expecteddeliverydate.xlsx
+++ b/ig/ch-etoc/StructureDefinition-ch-etoc-expecteddeliverydate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:00:41+00:00</t>
+    <t>2024-12-18T10:53:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1326,7 +1326,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>

--- a/ig/ch-etoc/StructureDefinition-ch-etoc-expecteddeliverydate.xlsx
+++ b/ig/ch-etoc/StructureDefinition-ch-etoc-expecteddeliverydate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T10:53:43+00:00</t>
+    <t>2025-12-16T15:56:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -383,7 +383,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -519,7 +519,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -548,7 +548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -631,7 +631,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -665,7 +665,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -720,7 +720,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -743,7 +743,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -851,7 +851,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -933,7 +933,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -965,7 +965,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1021,7 +1021,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1054,7 +1054,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1066,7 +1066,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1094,7 +1094,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1196,7 +1196,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1246,7 +1246,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1279,7 +1279,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1316,7 +1316,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1338,7 +1338,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1765,17 +1765,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.96484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.40234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.11328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1784,28 +1784,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.40625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.7421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3376,7 +3376,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>177</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>255</v>
       </c>
@@ -8094,12 +8094,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP52">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
